--- a/template/template-v2.xlsx
+++ b/template/template-v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ifinworth\ifinworth\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DF5016-39F3-425C-8560-F363AE80F288}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50989145-B586-483B-A985-84F47F6FB586}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{B1689DFF-EE47-4FC0-B162-7D2AF1E3E42F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="2" xr2:uid="{B1689DFF-EE47-4FC0-B162-7D2AF1E3E42F}"/>
   </bookViews>
   <sheets>
     <sheet name="P&amp;L" sheetId="2" r:id="rId1"/>
@@ -1506,7 +1506,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -3106,8 +3106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC96DA0-E1F5-4262-81B7-A5E910BCEBDB}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8"/>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48">
-        <f>-((BS!D6+BS!D7+BS!D8+BS!D9+BS!D10+BS!D13+BS!D14+BS!D15)+'P&amp;L'!E32-(BS!B6+BS!B7+BS!B8+BS!B9+BS!B10+BS!B13+BS!B14+BS!B15))</f>
+        <f>-((BS!D6+BS!D7+BS!D8+BS!D9+BS!D10+BS!D13+BS!D14+BS!D15+ BS!D16)+'P&amp;L'!E32-(BS!B6+BS!B7+BS!B8+BS!B9+BS!B10+BS!B13+BS!B14+BS!B15))</f>
         <v>0</v>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="C33" s="48"/>
       <c r="D33" s="48">
-        <f>(BS!D45+BS!D47)-(BS!B45+BS!B47)</f>
+        <f>(BS!D45+BS!D47+BS!D50+BS!D51+BS!D52)-(BS!B45+BS!B47+BS!B50+BS!B51+BS!B52)</f>
         <v>0</v>
       </c>
     </row>

--- a/template/template-v2.xlsx
+++ b/template/template-v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ifinworth\ifinworth\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50989145-B586-483B-A985-84F47F6FB586}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54DCAD5-0227-4C14-870A-88FB63B17EAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="2" xr2:uid="{B1689DFF-EE47-4FC0-B162-7D2AF1E3E42F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{B1689DFF-EE47-4FC0-B162-7D2AF1E3E42F}"/>
   </bookViews>
   <sheets>
     <sheet name="P&amp;L" sheetId="2" r:id="rId1"/>
@@ -871,7 +871,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -928,9 +928,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -994,29 +991,10 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1030,15 +1008,6 @@
     <xf numFmtId="1" fontId="2" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1048,6 +1017,72 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1506,7 +1541,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1524,19 +1559,19 @@
       <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="77" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6">
-      <c r="B2" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="76"/>
+      <c r="B2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="64"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -1545,8 +1580,8 @@
       <c r="B3" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="77"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="65"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -1555,26 +1590,26 @@
       <c r="B4" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="77"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="65"/>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="20"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="77"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="65"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="59">
         <f>SUM(C7:C14)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="77">
+      <c r="D6" s="65">
         <f>SUM(D7:D14)</f>
         <v>0</v>
       </c>
@@ -1583,50 +1618,50 @@
       <c r="B7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="77"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="65"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="77"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="77"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="77"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="77"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="65"/>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="77"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="65"/>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="77"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="65"/>
     </row>
     <row r="14" spans="1:4" ht="14.4" thickBot="1">
       <c r="A14" s="20"/>
@@ -1634,7 +1669,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="77"/>
+      <c r="D14" s="65"/>
     </row>
     <row r="15" spans="1:4" ht="14.4" thickBot="1">
       <c r="A15" s="24" t="s">
@@ -1647,14 +1682,14 @@
         <f>C3+C4+C6</f>
         <v>0</v>
       </c>
-      <c r="D15" s="78">
+      <c r="D15" s="66">
         <f>D3+D4+D6</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="C16" s="58"/>
-      <c r="D16" s="77"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="65"/>
     </row>
     <row r="17" spans="1:4" ht="15.6">
       <c r="A17" t="s">
@@ -1663,49 +1698,49 @@
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="77"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="65"/>
     </row>
     <row r="18" spans="1:4">
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="77"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="65"/>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="77"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="65"/>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="77"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="65"/>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="77"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="65"/>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="77"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="65"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="77"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="65"/>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="31" t="s">
@@ -1715,7 +1750,7 @@
         <f>SUM(C25:C27)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="67">
         <f>SUM(D25:D27)</f>
         <v>0</v>
       </c>
@@ -1725,25 +1760,25 @@
         <v>90</v>
       </c>
       <c r="C25" s="14"/>
-      <c r="D25" s="77"/>
+      <c r="D25" s="65"/>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" t="s">
         <v>91</v>
       </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="77"/>
+      <c r="D26" s="65"/>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" t="s">
         <v>115</v>
       </c>
       <c r="C27" s="14"/>
-      <c r="D27" s="77"/>
+      <c r="D27" s="65"/>
     </row>
     <row r="28" spans="1:4" ht="14.4" thickBot="1">
       <c r="C28" s="14"/>
-      <c r="D28" s="77"/>
+      <c r="D28" s="65"/>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" ht="14.4" thickBot="1">
       <c r="A29" s="25"/>
@@ -1754,7 +1789,7 @@
         <f>SUM(C18:C22)+C24</f>
         <v>0</v>
       </c>
-      <c r="D29" s="78">
+      <c r="D29" s="66">
         <f>SUM(D18:D22)+D24</f>
         <v>0</v>
       </c>
@@ -1762,8 +1797,8 @@
     <row r="30" spans="1:4" s="1" customFormat="1">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="80"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="68"/>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" ht="27.6">
       <c r="A31" s="7"/>
@@ -1774,7 +1809,7 @@
         <f t="shared" ref="C31" si="0">C15-C29</f>
         <v>0</v>
       </c>
-      <c r="D31" s="81">
+      <c r="D31" s="69">
         <f t="shared" ref="D31" si="1">D15-D29</f>
         <v>0</v>
       </c>
@@ -1784,12 +1819,12 @@
       <c r="B32" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="77"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="65"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="C33" s="63"/>
-      <c r="D33" s="77"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="65"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="7"/>
@@ -1800,7 +1835,7 @@
         <f>C31-C32</f>
         <v>0</v>
       </c>
-      <c r="D34" s="81">
+      <c r="D34" s="69">
         <f>D31-D32</f>
         <v>0</v>
       </c>
@@ -1809,12 +1844,12 @@
       <c r="B35" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="77"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="65"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="C36" s="63"/>
-      <c r="D36" s="77"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="65"/>
     </row>
     <row r="37" spans="1:4" ht="18.600000000000001" customHeight="1">
       <c r="A37" s="7" t="s">
@@ -1827,7 +1862,7 @@
         <f>C34-C35</f>
         <v>0</v>
       </c>
-      <c r="D37" s="81">
+      <c r="D37" s="69">
         <f>D34-D35</f>
         <v>0</v>
       </c>
@@ -1840,11 +1875,11 @@
         <v>15</v>
       </c>
       <c r="C38" s="14"/>
-      <c r="D38" s="77"/>
+      <c r="D38" s="65"/>
     </row>
     <row r="39" spans="1:4">
       <c r="C39" s="14"/>
-      <c r="D39" s="77"/>
+      <c r="D39" s="65"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="7" t="s">
@@ -1857,7 +1892,7 @@
         <f>C37-C38</f>
         <v>0</v>
       </c>
-      <c r="D40" s="81">
+      <c r="D40" s="69">
         <f>D37-D38</f>
         <v>0</v>
       </c>
@@ -1865,8 +1900,8 @@
     <row r="41" spans="1:4">
       <c r="A41" s="1"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="82"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="70"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
@@ -1876,14 +1911,14 @@
         <v>18</v>
       </c>
       <c r="C42" s="14"/>
-      <c r="D42" s="77"/>
+      <c r="D42" s="65"/>
     </row>
     <row r="43" spans="1:4">
       <c r="B43" t="s">
         <v>19</v>
       </c>
       <c r="C43" s="14"/>
-      <c r="D43" s="77"/>
+      <c r="D43" s="65"/>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" ht="14.4" thickBot="1">
       <c r="A44"/>
@@ -1891,7 +1926,7 @@
         <v>20</v>
       </c>
       <c r="C44" s="14"/>
-      <c r="D44" s="77"/>
+      <c r="D44" s="65"/>
     </row>
     <row r="45" spans="1:4" s="1" customFormat="1" ht="14.4" thickBot="1">
       <c r="A45" s="27"/>
@@ -1902,15 +1937,15 @@
         <f>SUM(C43:C44)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="83">
+      <c r="D45" s="71">
         <f>SUM(D43:D44)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="B46" s="30"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="80"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="68"/>
     </row>
     <row r="47" spans="1:4" ht="27.6">
       <c r="A47" s="7" t="s">
@@ -1923,15 +1958,15 @@
         <f>C40-C45</f>
         <v>0</v>
       </c>
-      <c r="D47" s="81">
+      <c r="D47" s="69">
         <f>D40-D45</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="1" customFormat="1">
       <c r="B48" s="4"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="82"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="70"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
@@ -1941,7 +1976,7 @@
         <v>24</v>
       </c>
       <c r="C49" s="14"/>
-      <c r="D49" s="77"/>
+      <c r="D49" s="65"/>
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1">
       <c r="A50" s="17" t="s">
@@ -1951,7 +1986,7 @@
         <v>26</v>
       </c>
       <c r="C50" s="33"/>
-      <c r="D50" s="79"/>
+      <c r="D50" s="67"/>
     </row>
     <row r="51" spans="1:4" ht="27.6">
       <c r="A51" s="7" t="s">
@@ -1964,7 +1999,7 @@
         <f>C49-C50</f>
         <v>0</v>
       </c>
-      <c r="D51" s="81">
+      <c r="D51" s="69">
         <f>D49-D50</f>
         <v>0</v>
       </c>
@@ -1973,7 +2008,7 @@
       <c r="A52" s="17"/>
       <c r="B52" s="32"/>
       <c r="C52" s="33"/>
-      <c r="D52" s="79"/>
+      <c r="D52" s="67"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="7" t="s">
@@ -1986,7 +2021,7 @@
         <f>C51+C47</f>
         <v>0</v>
       </c>
-      <c r="D53" s="81">
+      <c r="D53" s="69">
         <f>D51+D47</f>
         <v>0</v>
       </c>
@@ -1994,7 +2029,7 @@
     <row r="54" spans="1:4">
       <c r="B54" s="3"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="77"/>
+      <c r="D54" s="65"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
@@ -2004,65 +2039,65 @@
         <v>31</v>
       </c>
       <c r="C55" s="14"/>
-      <c r="D55" s="77"/>
+      <c r="D55" s="65"/>
     </row>
     <row r="56" spans="1:4">
       <c r="B56" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C56" s="14"/>
-      <c r="D56" s="77"/>
+      <c r="D56" s="65"/>
     </row>
     <row r="57" spans="1:4">
       <c r="B57" s="3"/>
       <c r="C57" s="14"/>
-      <c r="D57" s="77"/>
+      <c r="D57" s="65"/>
     </row>
     <row r="58" spans="1:4">
       <c r="B58" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C58" s="14"/>
-      <c r="D58" s="77"/>
+      <c r="D58" s="65"/>
     </row>
     <row r="59" spans="1:4">
       <c r="B59" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C59" s="14"/>
-      <c r="D59" s="77"/>
+      <c r="D59" s="65"/>
     </row>
     <row r="60" spans="1:4" ht="27.6">
       <c r="B60" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C60" s="14"/>
-      <c r="D60" s="77"/>
+      <c r="D60" s="65"/>
     </row>
     <row r="61" spans="1:4">
       <c r="B61" t="s">
         <v>33</v>
       </c>
       <c r="C61" s="14"/>
-      <c r="D61" s="77"/>
+      <c r="D61" s="65"/>
     </row>
     <row r="62" spans="1:4">
       <c r="B62" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C62" s="14"/>
-      <c r="D62" s="77"/>
+      <c r="D62" s="65"/>
     </row>
     <row r="63" spans="1:4" ht="27.6">
       <c r="B63" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C63" s="14"/>
-      <c r="D63" s="77"/>
+      <c r="D63" s="65"/>
     </row>
     <row r="64" spans="1:4" ht="14.4" thickBot="1">
       <c r="C64" s="14"/>
-      <c r="D64" s="77"/>
+      <c r="D64" s="65"/>
     </row>
     <row r="65" spans="1:4" ht="42" thickBot="1">
       <c r="A65" s="25" t="s">
@@ -2075,232 +2110,232 @@
         <f>C53+SUM(C59:C63)</f>
         <v>0</v>
       </c>
-      <c r="D65" s="78">
+      <c r="D65" s="66">
         <f>D53+SUM(D59:D63)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="D66" s="84"/>
+      <c r="D66" s="72"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="D67" s="84"/>
+      <c r="D67" s="72"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="D68" s="84"/>
+      <c r="D68" s="72"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="D69" s="84"/>
+      <c r="D69" s="72"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="D70" s="84"/>
+      <c r="D70" s="72"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="D71" s="84"/>
+      <c r="D71" s="72"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="D72" s="84"/>
+      <c r="D72" s="72"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="D73" s="84"/>
+      <c r="D73" s="72"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="D74" s="84"/>
+      <c r="D74" s="72"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="D75" s="84"/>
+      <c r="D75" s="72"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="D76" s="84"/>
+      <c r="D76" s="72"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="D77" s="84"/>
+      <c r="D77" s="72"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="D78" s="84"/>
+      <c r="D78" s="72"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="D79" s="84"/>
+      <c r="D79" s="72"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="D80" s="84"/>
+      <c r="D80" s="72"/>
     </row>
     <row r="81" spans="4:4">
-      <c r="D81" s="84"/>
+      <c r="D81" s="72"/>
     </row>
     <row r="82" spans="4:4">
-      <c r="D82" s="84"/>
+      <c r="D82" s="72"/>
     </row>
     <row r="83" spans="4:4">
-      <c r="D83" s="84"/>
+      <c r="D83" s="72"/>
     </row>
     <row r="84" spans="4:4">
-      <c r="D84" s="84"/>
+      <c r="D84" s="72"/>
     </row>
     <row r="85" spans="4:4">
-      <c r="D85" s="84"/>
+      <c r="D85" s="72"/>
     </row>
     <row r="86" spans="4:4">
-      <c r="D86" s="84"/>
+      <c r="D86" s="72"/>
     </row>
     <row r="87" spans="4:4">
-      <c r="D87" s="84"/>
+      <c r="D87" s="72"/>
     </row>
     <row r="88" spans="4:4">
-      <c r="D88" s="84"/>
+      <c r="D88" s="72"/>
     </row>
     <row r="89" spans="4:4">
-      <c r="D89" s="84"/>
+      <c r="D89" s="72"/>
     </row>
     <row r="90" spans="4:4">
-      <c r="D90" s="84"/>
+      <c r="D90" s="72"/>
     </row>
     <row r="91" spans="4:4">
-      <c r="D91" s="84"/>
+      <c r="D91" s="72"/>
     </row>
     <row r="92" spans="4:4">
-      <c r="D92" s="84"/>
+      <c r="D92" s="72"/>
     </row>
     <row r="93" spans="4:4">
-      <c r="D93" s="84"/>
+      <c r="D93" s="72"/>
     </row>
     <row r="94" spans="4:4">
-      <c r="D94" s="84"/>
+      <c r="D94" s="72"/>
     </row>
     <row r="95" spans="4:4">
-      <c r="D95" s="84"/>
+      <c r="D95" s="72"/>
     </row>
     <row r="96" spans="4:4">
-      <c r="D96" s="84"/>
+      <c r="D96" s="72"/>
     </row>
     <row r="97" spans="4:4">
-      <c r="D97" s="84"/>
+      <c r="D97" s="72"/>
     </row>
     <row r="98" spans="4:4">
-      <c r="D98" s="84"/>
+      <c r="D98" s="72"/>
     </row>
     <row r="99" spans="4:4">
-      <c r="D99" s="84"/>
+      <c r="D99" s="72"/>
     </row>
     <row r="100" spans="4:4">
-      <c r="D100" s="84"/>
+      <c r="D100" s="72"/>
     </row>
     <row r="101" spans="4:4">
-      <c r="D101" s="84"/>
+      <c r="D101" s="72"/>
     </row>
     <row r="102" spans="4:4">
-      <c r="D102" s="84"/>
+      <c r="D102" s="72"/>
     </row>
     <row r="103" spans="4:4">
-      <c r="D103" s="84"/>
+      <c r="D103" s="72"/>
     </row>
     <row r="104" spans="4:4">
-      <c r="D104" s="84"/>
+      <c r="D104" s="72"/>
     </row>
     <row r="105" spans="4:4">
-      <c r="D105" s="84"/>
+      <c r="D105" s="72"/>
     </row>
     <row r="106" spans="4:4">
-      <c r="D106" s="84"/>
+      <c r="D106" s="72"/>
     </row>
     <row r="107" spans="4:4">
-      <c r="D107" s="84"/>
+      <c r="D107" s="72"/>
     </row>
     <row r="108" spans="4:4">
-      <c r="D108" s="84"/>
+      <c r="D108" s="72"/>
     </row>
     <row r="109" spans="4:4">
-      <c r="D109" s="84"/>
+      <c r="D109" s="72"/>
     </row>
     <row r="110" spans="4:4">
-      <c r="D110" s="84"/>
+      <c r="D110" s="72"/>
     </row>
     <row r="111" spans="4:4">
-      <c r="D111" s="84"/>
+      <c r="D111" s="72"/>
     </row>
     <row r="112" spans="4:4">
-      <c r="D112" s="84"/>
+      <c r="D112" s="72"/>
     </row>
     <row r="113" spans="4:4">
-      <c r="D113" s="84"/>
+      <c r="D113" s="72"/>
     </row>
     <row r="114" spans="4:4">
-      <c r="D114" s="84"/>
+      <c r="D114" s="72"/>
     </row>
     <row r="115" spans="4:4">
-      <c r="D115" s="84"/>
+      <c r="D115" s="72"/>
     </row>
     <row r="116" spans="4:4">
-      <c r="D116" s="84"/>
+      <c r="D116" s="72"/>
     </row>
     <row r="117" spans="4:4">
-      <c r="D117" s="84"/>
+      <c r="D117" s="72"/>
     </row>
     <row r="118" spans="4:4">
-      <c r="D118" s="84"/>
+      <c r="D118" s="72"/>
     </row>
     <row r="119" spans="4:4">
-      <c r="D119" s="84"/>
+      <c r="D119" s="72"/>
     </row>
     <row r="120" spans="4:4">
-      <c r="D120" s="84"/>
+      <c r="D120" s="72"/>
     </row>
     <row r="121" spans="4:4">
-      <c r="D121" s="84"/>
+      <c r="D121" s="72"/>
     </row>
     <row r="122" spans="4:4">
-      <c r="D122" s="84"/>
+      <c r="D122" s="72"/>
     </row>
     <row r="123" spans="4:4">
-      <c r="D123" s="84"/>
+      <c r="D123" s="72"/>
     </row>
     <row r="124" spans="4:4">
-      <c r="D124" s="84"/>
+      <c r="D124" s="72"/>
     </row>
     <row r="125" spans="4:4">
-      <c r="D125" s="84"/>
+      <c r="D125" s="72"/>
     </row>
     <row r="126" spans="4:4">
-      <c r="D126" s="84"/>
+      <c r="D126" s="72"/>
     </row>
     <row r="127" spans="4:4">
-      <c r="D127" s="84"/>
+      <c r="D127" s="72"/>
     </row>
     <row r="128" spans="4:4">
-      <c r="D128" s="84"/>
+      <c r="D128" s="72"/>
     </row>
     <row r="129" spans="4:4">
-      <c r="D129" s="84"/>
+      <c r="D129" s="72"/>
     </row>
     <row r="130" spans="4:4">
-      <c r="D130" s="84"/>
+      <c r="D130" s="72"/>
     </row>
     <row r="131" spans="4:4">
-      <c r="D131" s="84"/>
+      <c r="D131" s="72"/>
     </row>
     <row r="132" spans="4:4">
-      <c r="D132" s="84"/>
+      <c r="D132" s="72"/>
     </row>
     <row r="133" spans="4:4">
-      <c r="D133" s="84"/>
+      <c r="D133" s="72"/>
     </row>
     <row r="134" spans="4:4">
-      <c r="D134" s="84"/>
+      <c r="D134" s="72"/>
     </row>
     <row r="135" spans="4:4">
-      <c r="D135" s="84"/>
+      <c r="D135" s="72"/>
     </row>
     <row r="136" spans="4:4">
-      <c r="D136" s="84"/>
+      <c r="D136" s="72"/>
     </row>
     <row r="137" spans="4:4">
-      <c r="D137" s="84"/>
+      <c r="D137" s="72"/>
     </row>
     <row r="138" spans="4:4">
-      <c r="D138" s="84"/>
+      <c r="D138" s="72"/>
     </row>
     <row r="139" spans="4:4">
-      <c r="D139" s="85"/>
+      <c r="D139" s="73"/>
     </row>
     <row r="140" spans="4:4">
       <c r="D140" s="20"/>
@@ -2439,8 +2474,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2453,10 +2488,10 @@
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="74" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2464,622 +2499,622 @@
       <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="79"/>
     </row>
     <row r="3" spans="1:3" ht="17.399999999999999">
       <c r="A3" s="5"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="86"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
     </row>
     <row r="4" spans="1:3" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="86"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="79"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="88"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="88"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="88"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="88"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="88"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="88"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="88"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="88"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="88"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="88"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="88"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="88"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="88"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="88"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="88"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="88"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="82"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="88"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="88"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="82"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="88"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
     </row>
     <row r="25" spans="1:3" ht="14.4" thickBot="1">
       <c r="A25" s="10"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="88"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
     </row>
     <row r="26" spans="1:3" ht="16.2" thickBot="1">
       <c r="A26" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="84">
         <f>SUM(B6:B16,B18:B24)</f>
         <v>0</v>
       </c>
-      <c r="C26" s="87">
+      <c r="C26" s="85">
         <f>SUM(C6:C16,C18:C24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6">
       <c r="A27" s="2"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="86"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="79"/>
     </row>
     <row r="28" spans="1:3" ht="15.6">
       <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="86"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="79"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="88"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="88"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="88"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="82"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="88"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="82"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="88"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="82"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="88"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="82"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="88"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="82"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="88"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
     </row>
     <row r="37" spans="1:3" ht="14.4" thickBot="1">
       <c r="A37" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="89"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="86"/>
     </row>
     <row r="38" spans="1:3" ht="16.2" thickBot="1">
       <c r="A38" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="35">
+      <c r="B38" s="84">
         <f>SUM(B29,B31:B37)</f>
         <v>0</v>
       </c>
-      <c r="C38" s="87">
+      <c r="C38" s="85">
         <f>SUM(C29,C31:C37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.2" thickBot="1">
       <c r="A39" s="21"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="90"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="88"/>
     </row>
     <row r="40" spans="1:3" ht="18" thickBot="1">
       <c r="A40" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="35">
+      <c r="B40" s="84">
         <f t="shared" ref="B40" si="0">SUM(B26,B38)</f>
         <v>0</v>
       </c>
-      <c r="C40" s="87">
+      <c r="C40" s="85">
         <f t="shared" ref="C40" si="1">SUM(C26,C38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="B41" s="58"/>
-      <c r="C41" s="86"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="79"/>
     </row>
     <row r="42" spans="1:3" ht="17.399999999999999">
       <c r="A42" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="65"/>
-      <c r="C42" s="86"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="79"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="B43" s="58"/>
-      <c r="C43" s="86"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="79"/>
     </row>
     <row r="44" spans="1:3" ht="15.6">
       <c r="A44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="57"/>
-      <c r="C44" s="86"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="79"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="58"/>
-      <c r="C45" s="88"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="82"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="58"/>
-      <c r="C46" s="88"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="82"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>132</v>
       </c>
-      <c r="B47" s="58"/>
-      <c r="C47" s="86"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="79"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="58"/>
-      <c r="C48" s="86"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="79"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="58"/>
-      <c r="C49" s="86"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="79"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="66"/>
-      <c r="C50" s="91"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="89"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="86"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="79"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="66"/>
-      <c r="C52" s="86"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="79"/>
     </row>
     <row r="53" spans="1:3" ht="14.4" thickBot="1">
       <c r="A53" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="86"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="79"/>
     </row>
     <row r="54" spans="1:3" ht="16.2" thickBot="1">
       <c r="A54" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="35">
+      <c r="B54" s="84">
         <f>SUM(B45:B53)</f>
         <v>0</v>
       </c>
-      <c r="C54" s="87">
+      <c r="C54" s="85">
         <f>SUM(C45:C53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.6">
       <c r="A55" s="2"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="86"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="79"/>
     </row>
     <row r="56" spans="1:3" ht="15.6">
       <c r="A56" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="57"/>
-      <c r="C56" s="86"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="79"/>
     </row>
     <row r="57" spans="1:3" ht="15.6">
       <c r="A57" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="57"/>
-      <c r="C57" s="86"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="79"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="58"/>
-      <c r="C58" s="88"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="82"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="66"/>
-      <c r="C59" s="88"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="82"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B60" s="72"/>
-      <c r="C60" s="88"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="82"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="72"/>
-      <c r="C61" s="88"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="82"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="58"/>
-      <c r="C62" s="88"/>
+      <c r="B62" s="81"/>
+      <c r="C62" s="82"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="58"/>
-      <c r="C63" s="88"/>
-    </row>
-    <row r="64" spans="1:3" ht="30" customHeight="1">
+      <c r="B63" s="81"/>
+      <c r="C63" s="82"/>
+    </row>
+    <row r="64" spans="1:3" ht="16.2" customHeight="1">
       <c r="A64" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="58"/>
-      <c r="C64" s="88"/>
-    </row>
-    <row r="65" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="B64" s="81"/>
+      <c r="C64" s="82"/>
+    </row>
+    <row r="65" spans="1:3" ht="16.2" customHeight="1" thickBot="1">
       <c r="A65" t="s">
         <v>104</v>
       </c>
-      <c r="B65" s="58"/>
-      <c r="C65" s="88"/>
+      <c r="B65" s="81"/>
+      <c r="C65" s="82"/>
     </row>
     <row r="66" spans="1:3" ht="16.2" thickBot="1">
       <c r="A66" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B66" s="34">
+      <c r="B66" s="90">
         <f>SUM(B59:B65)</f>
         <v>0</v>
       </c>
-      <c r="C66" s="92">
+      <c r="C66" s="91">
         <f>SUM(C59:C65)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.6">
       <c r="A67" s="2"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="86"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="79"/>
     </row>
     <row r="68" spans="1:3" ht="15.6">
       <c r="A68" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="57"/>
-      <c r="C68" s="86"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="79"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="58"/>
-      <c r="C69" s="86"/>
+      <c r="B69" s="81"/>
+      <c r="C69" s="79"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="88"/>
+      <c r="B70" s="81"/>
+      <c r="C70" s="82"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="66"/>
-      <c r="C71" s="88"/>
+      <c r="B71" s="81"/>
+      <c r="C71" s="82"/>
     </row>
     <row r="72" spans="1:3" ht="27.6">
       <c r="A72" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="72"/>
-      <c r="C72" s="88"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="82"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="58"/>
-      <c r="C73" s="88"/>
+      <c r="B73" s="81"/>
+      <c r="C73" s="82"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="58"/>
-      <c r="C74" s="88"/>
+      <c r="B74" s="81"/>
+      <c r="C74" s="82"/>
     </row>
     <row r="75" spans="1:3" ht="14.4" thickBot="1">
       <c r="A75" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="59"/>
-      <c r="C75" s="88"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="82"/>
     </row>
     <row r="76" spans="1:3" ht="16.2" thickBot="1">
       <c r="A76" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="60">
+      <c r="B76" s="93">
         <f t="shared" ref="B76:C76" si="2">SUM(B70:B75)</f>
         <v>0</v>
       </c>
-      <c r="C76" s="93">
+      <c r="C76" s="94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16.2" thickBot="1">
       <c r="A77" s="21"/>
-      <c r="B77" s="69"/>
-      <c r="C77" s="90"/>
+      <c r="B77" s="95"/>
+      <c r="C77" s="88"/>
     </row>
     <row r="78" spans="1:3" ht="18" thickBot="1">
       <c r="A78" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="35">
+      <c r="B78" s="84">
         <f>SUM(B54,B66,B76)</f>
         <v>0</v>
       </c>
-      <c r="C78" s="87">
+      <c r="C78" s="85">
         <f>SUM(C54,C66,C76)</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="B79" s="58"/>
-      <c r="C79" s="14"/>
+      <c r="B79" s="81"/>
+      <c r="C79" s="96"/>
     </row>
     <row r="80" spans="1:3" ht="15.6">
       <c r="A80" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="36">
+      <c r="B80" s="97">
         <f>IF(B78=B40,0,B40-B78)</f>
         <v>0</v>
       </c>
-      <c r="C80" s="94">
+      <c r="C80" s="98">
         <f>IF(C78=C40,0,C40-C78)</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="58"/>
+      <c r="B81" s="55"/>
       <c r="C81" s="14"/>
     </row>
     <row r="82" spans="2:3">
-      <c r="B82" s="58"/>
+      <c r="B82" s="55"/>
       <c r="C82" s="14"/>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="58"/>
+      <c r="B83" s="55"/>
       <c r="C83" s="14"/>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="58"/>
+      <c r="B84" s="55"/>
       <c r="C84" s="14"/>
     </row>
     <row r="85" spans="2:3">
-      <c r="B85" s="58"/>
+      <c r="B85" s="55"/>
       <c r="C85" s="14"/>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="58"/>
+      <c r="B86" s="55"/>
       <c r="C86" s="14"/>
     </row>
     <row r="87" spans="2:3">
-      <c r="B87" s="58"/>
+      <c r="B87" s="55"/>
       <c r="C87" s="14"/>
     </row>
     <row r="88" spans="2:3">
-      <c r="B88" s="58"/>
+      <c r="B88" s="55"/>
       <c r="C88" s="14"/>
     </row>
     <row r="89" spans="2:3">
-      <c r="B89" s="58"/>
+      <c r="B89" s="55"/>
       <c r="C89" s="14"/>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="58"/>
+      <c r="B90" s="55"/>
       <c r="C90" s="14"/>
     </row>
     <row r="91" spans="2:3">
-      <c r="B91" s="58"/>
+      <c r="B91" s="55"/>
       <c r="C91" s="14"/>
     </row>
   </sheetData>
@@ -3106,500 +3141,500 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC96DA0-E1F5-4262-81B7-A5E910BCEBDB}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="46.69921875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="44.69921875" style="39" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.8984375" style="37"/>
+    <col min="1" max="1" width="5.59765625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="46.69921875" style="37" customWidth="1"/>
+    <col min="3" max="3" width="44.69921875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.8984375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="46" customFormat="1">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:4" s="43" customFormat="1">
+      <c r="A1" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="42" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="44">
         <f>'P&amp;L'!C40</f>
         <v>0</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="44">
         <f>'P&amp;L'!E40</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="47"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="44"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="44">
         <f>'P&amp;L'!C32</f>
         <v>0</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="44">
         <f>'P&amp;L'!E32</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="44">
         <f>'P&amp;L'!C8</f>
         <v>0</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="44">
         <f>'P&amp;L'!E8</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="44">
         <f>'P&amp;L'!C35</f>
         <v>0</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="44">
         <f>'P&amp;L'!E35</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="44">
         <f>'P&amp;L'!C10-'P&amp;L'!C25</f>
         <v>0</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="44">
         <f>'P&amp;L'!E10-'P&amp;L'!E25</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="44">
         <f>'P&amp;L'!C11-'P&amp;L'!C26</f>
         <v>0</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="44">
         <f>'P&amp;L'!E11-'P&amp;L'!E26</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48">
+      <c r="C11" s="45"/>
+      <c r="D11" s="45">
         <f>-((BS!D32)-(BS!B32))</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48">
+      <c r="C12" s="45"/>
+      <c r="D12" s="45">
         <f>-(BS!D29-BS!B29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48">
+      <c r="C13" s="45"/>
+      <c r="D13" s="45">
         <f>-((+BS!D37+BS!D22+BS!D21)-(+BS!B37+BS!B22+BS!B21))</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48">
+      <c r="C14" s="45"/>
+      <c r="D14" s="45">
         <f>-((BS!D20+BS!D35)-(BS!B20+BS!B35))</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48">
+      <c r="C15" s="45"/>
+      <c r="D15" s="45">
         <f>-(BS!D36-BS!B36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48">
+      <c r="C16" s="45"/>
+      <c r="D16" s="45">
         <f>(BS!D71)-(BS!B71)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45">
         <f>(BS!D72+BS!D60)-(BS!B72+BS!B60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27.6">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48">
+      <c r="C18" s="45"/>
+      <c r="D18" s="45">
         <f>(BS!D73+BS!D74+BS!D62+BS!D63)-(BS!B73+BS!B74+BS!B62+BS!B63)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48">
+      <c r="C19" s="45"/>
+      <c r="D19" s="45">
         <f>(BS!D64-BS!B64)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48">
+      <c r="C20" s="45"/>
+      <c r="D20" s="45">
         <f>BS!D75-BS!B75</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="45">
         <f>'P&amp;L'!C56</f>
         <v>0</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="45">
         <f>'P&amp;L'!E56</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="45">
         <f>-'P&amp;L'!C45</f>
         <v>0</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="45">
         <f>-'P&amp;L'!E45</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="46">
         <f>SUM(C3:C22)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="49">
+      <c r="D23" s="46">
         <f t="shared" ref="D23" si="0">SUM(D3:D22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48">
+      <c r="C26" s="45"/>
+      <c r="D26" s="45">
         <f>-((BS!D6+BS!D7+BS!D8+BS!D9+BS!D10+BS!D13+BS!D14+BS!D15+ BS!D16)+'P&amp;L'!E32-(BS!B6+BS!B7+BS!B8+BS!B9+BS!B10+BS!B13+BS!B14+BS!B15))</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C27" s="45">
         <f>'P&amp;L'!C13-'P&amp;L'!C27</f>
         <v>0</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="45">
         <f>'P&amp;L'!E13-'P&amp;L'!E27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="45">
         <f>'P&amp;L'!C11-'P&amp;L'!C26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="45">
         <f>'P&amp;L'!E11-'P&amp;L'!E26</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48">
+      <c r="C29" s="45"/>
+      <c r="D29" s="45">
         <f>-((BS!D11-BS!B11)+(BS!D18+BS!D19)-(BS!B18+BS!B19)+(BS!D31-BS!B31))</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="46">
         <f>SUM(C27:C29)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D30" s="46">
         <f>SUM(D26:D29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48">
+      <c r="C33" s="45"/>
+      <c r="D33" s="45">
         <f>(BS!D45+BS!D47+BS!D50+BS!D51+BS!D52)-(BS!B45+BS!B47+BS!B50+BS!B51+BS!B52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.4" thickBot="1">
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="50">
+      <c r="C34" s="48"/>
+      <c r="D34" s="47">
         <f>BS!D46-BS!B46</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48">
+      <c r="C35" s="45"/>
+      <c r="D35" s="45">
         <f>BS!D59-BS!B59</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48">
+      <c r="C36" s="45"/>
+      <c r="D36" s="45">
         <f>BS!D70-BS!B70</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48">
+      <c r="C37" s="45"/>
+      <c r="D37" s="45">
         <f>BS!D61 - BS!B61</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="48">
+      <c r="C38" s="45">
         <f t="shared" ref="C38:D38" si="1">-C7</f>
         <v>0</v>
       </c>
-      <c r="D38" s="48">
+      <c r="D38" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.4" thickBot="1">
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="51">
+      <c r="C39" s="53"/>
+      <c r="D39" s="48">
         <f>BS!D48 - BS!B48</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="C40" s="49">
+      <c r="C40" s="46">
         <f>SUM(C33:C38)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="49">
+      <c r="D40" s="46">
         <f>SUM(D33:D39)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="54" customFormat="1" ht="14.4" thickBot="1">
-      <c r="B41" s="52"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
+    <row r="41" spans="1:4" s="51" customFormat="1" ht="14.4" thickBot="1">
+      <c r="B41" s="49"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="C42" s="49">
+      <c r="C42" s="46">
         <f t="shared" ref="C42:D42" si="2">C23+C30+C40</f>
         <v>0</v>
       </c>
-      <c r="D42" s="49">
+      <c r="D42" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48">
+      <c r="C44" s="45"/>
+      <c r="D44" s="45">
         <f>C46</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.4" thickBot="1">
-      <c r="B45" s="43"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="49">
+      <c r="C46" s="46">
         <f>BS!B33</f>
         <v>0</v>
       </c>
-      <c r="D46" s="49">
+      <c r="D46" s="46">
         <f>D42+D44</f>
         <v>0</v>
       </c>

--- a/template/template-v2.xlsx
+++ b/template/template-v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ifinworth\ifinworth\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54DCAD5-0227-4C14-870A-88FB63B17EAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B09F0A-F2DD-4165-9439-5D7DE300417E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{B1689DFF-EE47-4FC0-B162-7D2AF1E3E42F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="2" xr2:uid="{B1689DFF-EE47-4FC0-B162-7D2AF1E3E42F}"/>
   </bookViews>
   <sheets>
     <sheet name="P&amp;L" sheetId="2" r:id="rId1"/>
@@ -1541,7 +1541,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -3141,8 +3141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC96DA0-E1F5-4262-81B7-A5E910BCEBDB}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8"/>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="C26" s="45"/>
       <c r="D26" s="45">
-        <f>-((BS!D6+BS!D7+BS!D8+BS!D9+BS!D10+BS!D13+BS!D14+BS!D15+ BS!D16)+'P&amp;L'!E32-(BS!B6+BS!B7+BS!B8+BS!B9+BS!B10+BS!B13+BS!B14+BS!B15))</f>
+        <f>-((BS!D6+BS!D7+BS!D8+BS!D9+BS!D10+BS!D13+BS!D14+BS!D15+ BS!D16)+'P&amp;L'!E32-(BS!B6+BS!B7+BS!B8+BS!B9+BS!B10+BS!B13+BS!B14+BS!B15+BS!D16))</f>
         <v>0</v>
       </c>
     </row>

--- a/template/template-v2.xlsx
+++ b/template/template-v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ifinworth\ifinworth\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B09F0A-F2DD-4165-9439-5D7DE300417E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A517E547-62B5-49CF-A305-D1E2030F935F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="2" xr2:uid="{B1689DFF-EE47-4FC0-B162-7D2AF1E3E42F}"/>
   </bookViews>
@@ -3141,8 +3141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC96DA0-E1F5-4262-81B7-A5E910BCEBDB}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8"/>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="C26" s="45"/>
       <c r="D26" s="45">
-        <f>-((BS!D6+BS!D7+BS!D8+BS!D9+BS!D10+BS!D13+BS!D14+BS!D15+ BS!D16)+'P&amp;L'!E32-(BS!B6+BS!B7+BS!B8+BS!B9+BS!B10+BS!B13+BS!B14+BS!B15+BS!D16))</f>
+        <f>-((BS!D6+BS!D7+BS!D8+BS!D9+BS!D10+BS!D13+BS!D14+BS!D15+ BS!D16)+'P&amp;L'!E32-(BS!B6+BS!B7+BS!B8+BS!B9+BS!B10+BS!B13+BS!B14+BS!B15+BS!B16))</f>
         <v>0</v>
       </c>
     </row>
